--- a/scrumVideotheek.xlsx
+++ b/scrumVideotheek.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rll6ib\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gooss\Desktop\CubeBurster\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1A9D93-243F-4638-81BD-9133098D35F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="1" r:id="rId1"/>
@@ -21,21 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
   <si>
     <t>Als ontlener wil ik een lijst van alle films kunnen zien zodat ik weet welke films ik kan kiezen</t>
   </si>
@@ -185,12 +177,45 @@
   </si>
   <si>
     <t>Als eigenaar wil ik de boetes van mensen in aparte tabel kunnen zien en of ze betaald zijn of niet zodat ik deze kan geven aan de overheid</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>User story</t>
+  </si>
+  <si>
+    <t>verwachte story points</t>
+  </si>
+  <si>
+    <t>echte story points</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>1u30m</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>als ontlener wil ik dat mijn paswoord beveiligd is zodat er niemand anders op mijn account kan</t>
+  </si>
+  <si>
+    <t>Programmeur</t>
+  </si>
+  <si>
+    <t>Rein</t>
+  </si>
+  <si>
+    <t>Kieron/Rein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,19 +636,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="154.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="154.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -631,13 +656,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -645,25 +670,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -671,73 +696,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -745,189 +770,189 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1"/>
       <c r="Y49" s="7"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>49</v>
       </c>
@@ -940,22 +965,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="132" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="117.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="140.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="117.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="140.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -967,16 +992,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -986,8 +1011,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C4" t="s">
@@ -997,8 +1022,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1008,8 +1033,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1019,8 +1044,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1030,8 +1055,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1041,8 +1066,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1052,8 +1077,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1063,8 +1088,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1074,8 +1099,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1085,8 +1110,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1096,74 +1121,74 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1173,16 +1198,257 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="138" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scrumVideotheek.xlsx
+++ b/scrumVideotheek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gooss\Desktop\CubeBurster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school 6ib\C#\cubeburster\CubeBurster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1A9D93-243F-4638-81BD-9133098D35F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A58849-F236-429C-925B-EB7674CE0F46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
   <si>
     <t>Als ontlener wil ik een lijst van alle films kunnen zien zodat ik weet welke films ik kan kiezen</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Kieron/Rein</t>
+  </si>
+  <si>
+    <t>sepp/Kieron</t>
+  </si>
+  <si>
+    <t>2u30m</t>
+  </si>
+  <si>
+    <t>Kunnen geen induviduele gegevens uit records halen</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,9 +1220,10 @@
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
@@ -1227,7 +1237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1241,7 +1251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1255,15 +1265,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1271,7 +1290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1298,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1287,7 +1306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1303,7 +1322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1327,7 +1346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +1354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1343,7 +1362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1351,7 +1370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>

--- a/scrumVideotheek.xlsx
+++ b/scrumVideotheek.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school 6ib\C#\cubeburster\CubeBurster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rll6ib\Desktop\CubeBurster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A58849-F236-429C-925B-EB7674CE0F46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
   <si>
     <t>Als ontlener wil ik een lijst van alle films kunnen zien zodat ik weet welke films ik kan kiezen</t>
   </si>
@@ -224,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,19 +644,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="154.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="154.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -665,13 +664,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -679,25 +678,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -705,73 +704,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -779,189 +778,189 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1"/>
       <c r="Y49" s="7"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>49</v>
       </c>
@@ -974,22 +973,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="132" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="117.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="140.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="117.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="140.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -1031,7 +1030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1138,7 +1137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
@@ -1146,57 +1145,57 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
@@ -1207,23 +1206,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="138" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1378,7 +1377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1458,12 +1457,137 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
